--- a/tests/dev_tests/GN_0544_Antibio.xlsx
+++ b/tests/dev_tests/GN_0544_Antibio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,16 +479,6 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Sel Organism</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -531,22 +521,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -591,22 +571,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -651,22 +621,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -711,22 +671,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -771,22 +721,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -831,22 +771,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -891,22 +821,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -951,22 +871,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -1011,22 +921,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1071,22 +971,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1021,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -1191,22 +1071,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1243,22 +1113,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1303,22 +1163,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1363,22 +1213,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1423,22 +1263,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -1483,22 +1313,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1539,22 +1359,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -1599,22 +1409,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1659,22 +1459,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1719,22 +1509,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1559,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1839,22 +1609,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1899,22 +1659,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -1959,22 +1709,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -2019,22 +1759,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -2079,22 +1809,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -2139,22 +1859,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -2199,22 +1909,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -2259,22 +1959,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -2315,22 +2005,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -2371,22 +2051,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -2431,22 +2101,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -2491,22 +2151,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -2551,22 +2201,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -2611,22 +2251,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2301,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -2731,22 +2351,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -2791,22 +2401,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -2851,22 +2451,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2501,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -2971,22 +2551,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -3031,22 +2601,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -3091,22 +2651,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -3151,22 +2701,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -3211,22 +2751,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -3271,22 +2801,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -3331,22 +2851,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -3383,22 +2893,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -3443,22 +2943,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -3503,22 +2993,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -3563,22 +3043,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -3623,22 +3093,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>CLSI</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -3683,22 +3143,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-GN96</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>AST-GN96</t>
         </is>
       </c>
     </row>
@@ -3743,22 +3193,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>EUCAST</t>
+          <t>AST-N411</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>Vitek</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Klebsiella pneumoniae ssp pneumoniae</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>AST-N411</t>
         </is>
       </c>
     </row>
@@ -3807,16 +3247,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3863,16 +3293,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3919,16 +3339,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3975,16 +3385,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4031,16 +3431,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4087,16 +3477,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4143,16 +3523,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4199,16 +3569,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4255,16 +3615,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4311,16 +3661,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4367,16 +3707,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4423,16 +3753,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4479,16 +3799,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4535,16 +3845,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4591,16 +3891,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4647,16 +3937,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4703,16 +3983,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4759,16 +4029,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4815,16 +4075,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4871,16 +4121,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4927,16 +4167,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4983,16 +4213,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5039,16 +4259,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5095,16 +4305,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5151,16 +4351,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5207,16 +4397,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -5263,16 +4443,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -5319,16 +4489,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -5375,16 +4535,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5431,16 +4581,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5487,16 +4627,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5543,16 +4673,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5599,16 +4719,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5655,16 +4765,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5711,16 +4811,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5767,16 +4857,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5823,16 +4903,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5879,16 +4949,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5935,16 +4995,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5991,16 +5041,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -6047,16 +5087,6 @@
           <t>CO-ADD</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -6101,16 +5131,6 @@
       <c r="J98" t="inlineStr">
         <is>
           <t>CO-ADD</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
